--- a/Data/Bank_churn/Images/Model_comparison.xlsx
+++ b/Data/Bank_churn/Images/Model_comparison.xlsx
@@ -500,10 +500,10 @@
         <v>0.8737800577728392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0313260555267334</v>
+        <v>0.01881790161132812</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.0155642032623291</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         <v>0.8312003297391106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03124356269836426</v>
+        <v>0.06296110153198242</v>
       </c>
       <c r="I3" t="n">
-        <v>4.510737895965576</v>
+        <v>5.691871643066406</v>
       </c>
     </row>
     <row r="4">
@@ -562,10 +562,10 @@
         <v>0.8252157752786951</v>
       </c>
       <c r="H4" t="n">
-        <v>22.07772421836853</v>
+        <v>27.58202981948853</v>
       </c>
       <c r="I4" t="n">
-        <v>30.57392644882202</v>
+        <v>36.18104100227356</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.8872424904426934</v>
       </c>
       <c r="H5" t="n">
-        <v>2.322299957275391</v>
+        <v>2.405626773834229</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05318498611450195</v>
+        <v>0.04840803146362305</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8603918400323167</v>
+        <v>0.8609843129334142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7365486725663717</v>
+        <v>0.7329702627939142</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5296550846379026</v>
+        <v>0.5395825378643248</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6161990079218184</v>
+        <v>0.6215819954548786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8775854306516153</v>
+        <v>0.8786271786367865</v>
       </c>
       <c r="H6" t="n">
-        <v>483.2734689712524</v>
+        <v>2044.23251080513</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4708023071289062</v>
+        <v>0.9417350292205811</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/Model_comparison.xlsx
+++ b/Data/Bank_churn/Images/Model_comparison.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagni\Documents\Personal Files\CS7641\CS7641\Data\Bank_churn\Images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA9F5C-AB71-42AD-AE1C-9AFE6D672CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Train Time</t>
+  </si>
+  <si>
+    <t>Test Time</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>Boosted Tree</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +97,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +426,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Train Time</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Test Time</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8561368073789807</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7184297377106131</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5264095710831106</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6076098134273542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8737800577728392</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01881790161132812</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0155642032623291</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.86377162862721335</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.62605802993901305</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.405626773834229</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.8408031463623047E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>K Nearest Neighbors</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.86098431293341415</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.62158199545487858</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2044.23251080513</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.94173502922058105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.85613680737898068</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.60760981342735421</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.8817901611328122E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.55642032623291E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.8382414327071972</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.7147000812159183</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3920071274023164</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5063083055932273</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8312003297391106</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.06296110153198242</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.691871643066406</v>
+      <c r="D5" s="3">
+        <v>0.50630830559322726</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.2961101531982422E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.6918716430664063</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Support Vector Machine</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8309028479095132</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7661045531197301</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2891052564592084</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4197930142302717</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8252157752786951</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27.58202981948853</v>
-      </c>
-      <c r="I4" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83090284790951319</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.41979301423027171</v>
+      </c>
+      <c r="E6" s="4">
+        <v>27.582029819488529</v>
+      </c>
+      <c r="F6" s="4">
         <v>36.18104100227356</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boosted Tree</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8637716286272134</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7467595450136673</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5389461626575028</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.626058029939013</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8872424904426934</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.405626773834229</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.04840803146362305</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Neural Network</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8609843129334142</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7329702627939142</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5395825378643248</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6215819954548786</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8786271786367865</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2044.23251080513</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9417350292205811</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F6">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>